--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2436,7 +2436,7 @@
         <v>117</v>
       </c>
       <c r="V33" t="n">
-        <v>1727</v>
+        <v>1688</v>
       </c>
       <c r="W33" t="n">
         <v>40</v>
@@ -2454,7 +2454,7 @@
         <v>1578</v>
       </c>
       <c r="AB33" t="n">
-        <v>13522</v>
+        <v>13483</v>
       </c>
     </row>
     <row r="34">
@@ -2463,9 +2463,7 @@
           <t>2020-03-28</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>364</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>45</v>
@@ -2517,7 +2515,9 @@
       <c r="U34" t="n">
         <v>134</v>
       </c>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>1727</v>
+      </c>
       <c r="W34" t="n">
         <v>48</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
@@ -4227,7 +4227,7 @@
         <v>11</v>
       </c>
       <c r="AB33" t="n">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
@@ -4236,9 +4236,7 @@
           <t>2020-03-28</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>3</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>2</v>
@@ -4284,7 +4282,9 @@
       <c r="U34" t="n">
         <v>1</v>
       </c>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>87</v>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
@@ -5945,9 +5945,7 @@
           <t>2020-03-28</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>50</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -5977,18 +5975,22 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>385</v>
+      </c>
       <c r="W34" t="n">
         <v>7</v>
       </c>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="n">
+        <v>110</v>
+      </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>187</v>
       </c>
       <c r="AB34" t="n">
-        <v>1676</v>
+        <v>1681</v>
       </c>
     </row>
   </sheetData>
@@ -7489,7 +7491,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
@@ -7501,7 +7503,7 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="n">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
@@ -7510,9 +7512,7 @@
           <t>2020-03-28</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>12</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -7538,14 +7538,18 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>69</v>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="n">
+        <v>19</v>
+      </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -8987,9 +8991,7 @@
           <t>2020-03-28</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>9</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -9012,13 +9014,15 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="n">
+        <v>15</v>
+      </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>42</v>
       </c>
       <c r="AB34" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -363,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2533,6 +2533,50 @@
         <v>14123</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>48</v>
+      </c>
+      <c r="E35" t="n">
+        <v>798</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>365</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>128</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
+        <v>14189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2544,7 +2588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4298,6 +4342,50 @@
         <v>275</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4309,7 +4397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5993,6 +6081,42 @@
         <v>1681</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
+        <v>1681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6004,7 +6128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7552,6 +7676,42 @@
         <v>248</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7563,7 +7723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8719,9 +8879,7 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="n">
-        <v>37</v>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
@@ -8730,7 +8888,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -8761,9 +8919,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="n">
-        <v>43</v>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
@@ -8772,7 +8928,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -8805,9 +8961,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="n">
-        <v>43</v>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
@@ -8816,7 +8970,7 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="n">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -8858,7 +9012,7 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
@@ -8898,7 +9052,7 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -8940,7 +9094,7 @@
         <v>32</v>
       </c>
       <c r="AB32" t="n">
-        <v>134</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -8982,7 +9136,7 @@
         <v>37</v>
       </c>
       <c r="AB33" t="n">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -9022,7 +9176,43 @@
         <v>42</v>
       </c>
       <c r="AB34" t="n">
-        <v>151</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9036,7 +9226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10490,6 +10680,44 @@
         <v>621</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>33</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
+        <v>621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2464,7 +2464,9 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>13</v>
+      </c>
       <c r="D34" t="n">
         <v>45</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>1720</v>
       </c>
       <c r="AB34" t="n">
-        <v>14123</v>
+        <v>14124</v>
       </c>
     </row>
     <row r="35">
@@ -2548,7 +2550,9 @@
         <v>798</v>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>609</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2562,7 +2566,9 @@
         <v>365</v>
       </c>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>190</v>
+      </c>
       <c r="T35" t="n">
         <v>128</v>
       </c>
@@ -2574,7 +2580,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>14189</v>
+        <v>14243</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2565,7 +2565,9 @@
       <c r="Q35" t="n">
         <v>365</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>40</v>
+      </c>
       <c r="S35" t="n">
         <v>190</v>
       </c>
@@ -2580,7 +2582,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>14243</v>
+        <v>14246</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2553,7 +2553,9 @@
       <c r="G35" t="n">
         <v>609</v>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>442</v>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -2582,7 +2584,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>14246</v>
+        <v>14267</v>
       </c>
     </row>
   </sheetData>
@@ -4366,7 +4368,9 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>16</v>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4391,7 +4395,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6101,7 +6105,9 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>76</v>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -6122,7 +6128,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>1681</v>
+        <v>1690</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2523,7 +2523,9 @@
       <c r="W34" t="n">
         <v>48</v>
       </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>2936</v>
+      </c>
       <c r="Y34" t="n">
         <v>902</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>1720</v>
       </c>
       <c r="AB34" t="n">
-        <v>14124</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="35">
@@ -2560,7 +2562,9 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>339</v>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -2576,7 +2580,9 @@
       <c r="T35" t="n">
         <v>128</v>
       </c>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>138</v>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2584,7 +2590,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>14267</v>
+        <v>14484</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4346,9 @@
         <v>87</v>
       </c>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>55</v>
+      </c>
       <c r="Y34" t="n">
         <v>21</v>
       </c>
@@ -4349,7 +4357,7 @@
         <v>15</v>
       </c>
       <c r="AB34" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
@@ -4367,7 +4375,9 @@
         <v>10</v>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>15</v>
+      </c>
       <c r="H35" t="n">
         <v>16</v>
       </c>
@@ -4375,7 +4385,9 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -4383,7 +4395,9 @@
         <v>5</v>
       </c>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
       <c r="T35" t="n">
         <v>2</v>
       </c>
@@ -4395,7 +4409,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -6081,7 +6095,9 @@
       <c r="W34" t="n">
         <v>7</v>
       </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>390</v>
+      </c>
       <c r="Y34" t="n">
         <v>110</v>
       </c>
@@ -6090,7 +6106,7 @@
         <v>187</v>
       </c>
       <c r="AB34" t="n">
-        <v>1681</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="35">
@@ -6104,7 +6120,9 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>65</v>
+      </c>
       <c r="H35" t="n">
         <v>76</v>
       </c>
@@ -6128,7 +6146,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>1690</v>
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
@@ -7680,14 +7698,16 @@
         <v>69</v>
       </c>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>76</v>
+      </c>
       <c r="Y34" t="n">
         <v>19</v>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
@@ -7701,7 +7721,9 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -7723,7 +7745,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -10686,12 +10708,14 @@
       <c r="W34" t="n">
         <v>3</v>
       </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>187</v>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="n">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35">
@@ -10705,7 +10729,9 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>228</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -10729,7 +10755,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>621</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2551,7 +2551,9 @@
       <c r="E35" t="n">
         <v>798</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>511</v>
+      </c>
       <c r="G35" t="n">
         <v>609</v>
       </c>
@@ -2590,7 +2592,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>14484</v>
+        <v>14493</v>
       </c>
     </row>
   </sheetData>
@@ -4374,7 +4376,9 @@
       <c r="E35" t="n">
         <v>10</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
       <c r="G35" t="n">
         <v>15</v>
       </c>
@@ -4409,7 +4413,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2483,7 +2483,7 @@
         <v>421</v>
       </c>
       <c r="I34" t="n">
-        <v>2097</v>
+        <v>2277</v>
       </c>
       <c r="J34" t="n">
         <v>47</v>
@@ -2534,7 +2534,7 @@
         <v>1720</v>
       </c>
       <c r="AB34" t="n">
-        <v>14315</v>
+        <v>14495</v>
       </c>
     </row>
     <row r="35">
@@ -2560,7 +2560,9 @@
       <c r="H35" t="n">
         <v>442</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>2283</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -2592,7 +2594,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>14493</v>
+        <v>14679</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +4387,9 @@
       <c r="H35" t="n">
         <v>16</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>32</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -4413,7 +4417,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6125,12 +6129,14 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="H35" t="n">
         <v>76</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>365</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -6150,7 +6156,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>1696</v>
+        <v>1744</v>
       </c>
     </row>
   </sheetData>
@@ -7729,7 +7735,9 @@
         <v>12</v>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>59</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -10737,7 +10745,9 @@
         <v>228</v>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>193</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -10759,7 +10769,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>651</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2569,7 +2569,9 @@
       <c r="M35" t="n">
         <v>339</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>313</v>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">
@@ -2594,7 +2596,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>14679</v>
+        <v>14681</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4398,9 @@
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>6</v>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2589,14 +2589,16 @@
       <c r="U35" t="n">
         <v>138</v>
       </c>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>1837</v>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>14681</v>
+        <v>14791</v>
       </c>
     </row>
   </sheetData>
@@ -4413,15 +4415,19 @@
       <c r="T35" t="n">
         <v>2</v>
       </c>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>93</v>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6153,14 +6159,16 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>402</v>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>1744</v>
+        <v>1761</v>
       </c>
     </row>
   </sheetData>
@@ -7754,7 +7762,9 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>69</v>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2596,9 +2596,11 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="AA35" t="n">
+        <v>1758</v>
+      </c>
       <c r="AB35" t="n">
-        <v>14791</v>
+        <v>14829</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4427,9 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="AA35" t="n">
+        <v>15</v>
+      </c>
       <c r="AB35" t="n">
         <v>300</v>
       </c>
@@ -6166,9 +6170,11 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="AA35" t="n">
+        <v>194</v>
+      </c>
       <c r="AB35" t="n">
-        <v>1761</v>
+        <v>1768</v>
       </c>
     </row>
   </sheetData>
@@ -9272,9 +9278,11 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="AA35" t="n">
+        <v>46</v>
+      </c>
       <c r="AB35" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -4315,7 +4315,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
         <v>13</v>
@@ -4367,7 +4367,7 @@
         <v>15</v>
       </c>
       <c r="AB34" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2565,14 +2565,18 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>118</v>
+      </c>
       <c r="M35" t="n">
         <v>339</v>
       </c>
       <c r="N35" t="n">
         <v>313</v>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>59</v>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">
         <v>365</v>
@@ -2594,13 +2598,15 @@
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="n">
+        <v>964</v>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>1758</v>
       </c>
       <c r="AB35" t="n">
-        <v>14829</v>
+        <v>14895</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4431,9 @@
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="n">
+        <v>21</v>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>15</v>
@@ -6153,7 +6161,9 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>23</v>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -6168,13 +6178,15 @@
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="n">
+        <v>112</v>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>194</v>
       </c>
       <c r="AB35" t="n">
-        <v>1768</v>
+        <v>1770</v>
       </c>
     </row>
   </sheetData>
@@ -7758,7 +7770,9 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>5</v>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -7773,11 +7787,13 @@
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="n">
+        <v>23</v>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -9276,13 +9292,15 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="n">
+        <v>14</v>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>46</v>
       </c>
       <c r="AB35" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2596,7 +2596,9 @@
       <c r="V35" t="n">
         <v>1837</v>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="n">
+        <v>50</v>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
         <v>964</v>
@@ -2606,7 +2608,7 @@
         <v>1758</v>
       </c>
       <c r="AB35" t="n">
-        <v>14895</v>
+        <v>14897</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +5549,9 @@
       <c r="G24" t="n">
         <v>40</v>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>11</v>
+      </c>
       <c r="I24" t="n">
         <v>78</v>
       </c>
@@ -5578,7 +5582,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25">
@@ -5599,7 +5603,9 @@
       <c r="G25" t="n">
         <v>40</v>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
       <c r="I25" t="n">
         <v>92</v>
       </c>
@@ -5632,7 +5638,7 @@
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="n">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26">
@@ -5651,7 +5657,9 @@
       <c r="G26" t="n">
         <v>45</v>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
       <c r="I26" t="n">
         <v>109</v>
       </c>
@@ -5686,7 +5694,7 @@
       </c>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="n">
-        <v>581</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27">
@@ -5703,7 +5711,9 @@
       <c r="G27" t="n">
         <v>46</v>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>28</v>
+      </c>
       <c r="I27" t="n">
         <v>145</v>
       </c>
@@ -5736,7 +5746,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>668</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28">
@@ -5753,7 +5763,9 @@
       <c r="G28" t="n">
         <v>50</v>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>32</v>
+      </c>
       <c r="I28" t="n">
         <v>179</v>
       </c>
@@ -5788,7 +5800,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>812</v>
+        <v>844</v>
       </c>
     </row>
     <row r="29">
@@ -6162,7 +6174,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -6176,7 +6188,9 @@
       <c r="V35" t="n">
         <v>402</v>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="n">
+        <v>7</v>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
         <v>112</v>
@@ -6186,7 +6200,7 @@
         <v>194</v>
       </c>
       <c r="AB35" t="n">
-        <v>1770</v>
+        <v>1772</v>
       </c>
     </row>
   </sheetData>
@@ -10803,7 +10817,9 @@
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="n">
+        <v>3</v>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -3723,7 +3723,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -3779,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="AB25" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -3866,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
@@ -3899,7 +3899,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -3924,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
@@ -3957,7 +3957,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -3986,7 +3986,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="AB29" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -4052,7 +4052,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
@@ -4091,7 +4091,7 @@
         <v>5</v>
       </c>
       <c r="AB30" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -4120,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
@@ -4161,7 +4161,7 @@
         <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
@@ -10634,12 +10634,10 @@
         <v>117</v>
       </c>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="n">
-        <v>18</v>
-      </c>
+      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32">

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -363,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2611,6 +2611,50 @@
         <v>14897</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>389</v>
+      </c>
+      <c r="R36" t="n">
+        <v>41</v>
+      </c>
+      <c r="S36" t="n">
+        <v>193</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>112</v>
+      </c>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>14936</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2622,7 +2666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3348,9 +3392,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>2</v>
       </c>
@@ -3394,9 +3436,7 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>2</v>
       </c>
@@ -3440,9 +3480,7 @@
       <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>2</v>
       </c>
@@ -3486,9 +3524,7 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>2</v>
       </c>
@@ -3534,9 +3570,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>4</v>
       </c>
@@ -3586,9 +3620,7 @@
       <c r="G22" t="n">
         <v>4</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>4</v>
       </c>
@@ -3638,9 +3670,7 @@
       <c r="G23" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>4</v>
       </c>
@@ -3691,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>6</v>
@@ -3723,7 +3753,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -4444,6 +4474,46 @@
         <v>300</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4455,7 +4525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6203,6 +6273,42 @@
         <v>1772</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>1772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6214,7 +6320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7810,6 +7916,42 @@
         <v>256</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7821,7 +7963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9317,6 +9459,42 @@
         <v>111</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9328,7 +9506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10826,6 +11004,44 @@
         <v>669</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2619,7 +2619,9 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>49</v>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -2652,7 +2654,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>14936</v>
+        <v>14937</v>
       </c>
     </row>
   </sheetData>
@@ -4482,7 +4484,9 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2643,7 +2643,9 @@
       <c r="S36" t="n">
         <v>193</v>
       </c>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>135</v>
+      </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
@@ -2654,7 +2656,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>14937</v>
+        <v>14944</v>
       </c>
     </row>
   </sheetData>
@@ -4504,7 +4506,9 @@
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
@@ -11032,7 +11036,9 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>33</v>
+      </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2624,7 +2624,9 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>621</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2656,7 +2658,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>14944</v>
+        <v>14956</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -1277,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H17" t="n">
         <v>16</v>
@@ -1314,7 +1314,7 @@
         <v>59</v>
       </c>
       <c r="AB17" t="n">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18">
@@ -4493,7 +4493,9 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>15</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -5314,7 +5316,9 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>13</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>20</v>
@@ -5342,7 +5346,7 @@
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -5386,7 +5390,7 @@
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -5430,7 +5434,7 @@
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="n">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -5472,7 +5476,7 @@
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -5514,7 +5518,7 @@
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -5560,7 +5564,7 @@
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
@@ -6069,7 +6073,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H32" t="n">
         <v>44</v>
@@ -6112,7 +6116,7 @@
         <v>152</v>
       </c>
       <c r="AB32" t="n">
-        <v>1437</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="33">
@@ -6129,7 +6133,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H33" t="n">
         <v>50</v>
@@ -6172,7 +6176,7 @@
         <v>156</v>
       </c>
       <c r="AB33" t="n">
-        <v>1592</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="34">
@@ -6187,7 +6191,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H34" t="n">
         <v>67</v>
@@ -6228,7 +6232,7 @@
         <v>187</v>
       </c>
       <c r="AB34" t="n">
-        <v>1701</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="35">
@@ -6243,7 +6247,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H35" t="n">
         <v>76</v>
@@ -6280,7 +6284,7 @@
         <v>194</v>
       </c>
       <c r="AB35" t="n">
-        <v>1772</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="36">
@@ -6294,7 +6298,9 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>70</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -6316,7 +6322,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>1772</v>
+        <v>1755</v>
       </c>
     </row>
   </sheetData>
@@ -7079,7 +7085,9 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>6</v>
@@ -7107,7 +7115,7 @@
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -7149,7 +7157,7 @@
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -7193,7 +7201,7 @@
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -7235,7 +7243,7 @@
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -7277,7 +7285,7 @@
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -7319,7 +7327,7 @@
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -7361,7 +7369,7 @@
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -7403,7 +7411,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -7449,7 +7457,7 @@
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -7495,7 +7503,7 @@
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -7539,7 +7547,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -7585,7 +7593,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -7633,7 +7641,7 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30">
@@ -7681,7 +7689,7 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -7729,7 +7737,7 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32">
@@ -7937,7 +7945,9 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>12</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -10227,7 +10237,9 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -10249,7 +10261,7 @@
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -11025,7 +11037,9 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>263</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -11051,7 +11065,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>680</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2648,7 +2648,9 @@
       <c r="T36" t="n">
         <v>135</v>
       </c>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>148</v>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2658,7 +2660,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>14956</v>
+        <v>14966</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2599,7 +2599,9 @@
       <c r="W35" t="n">
         <v>50</v>
       </c>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>3168</v>
+      </c>
       <c r="Y35" t="n">
         <v>964</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>1758</v>
       </c>
       <c r="AB35" t="n">
-        <v>14897</v>
+        <v>15129</v>
       </c>
     </row>
     <row r="36">
@@ -2627,7 +2629,9 @@
       <c r="G36" t="n">
         <v>621</v>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>477</v>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -2660,7 +2664,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>14966</v>
+        <v>15233</v>
       </c>
     </row>
   </sheetData>
@@ -4470,7 +4474,9 @@
         <v>93</v>
       </c>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>66</v>
+      </c>
       <c r="Y35" t="n">
         <v>21</v>
       </c>
@@ -4479,7 +4485,7 @@
         <v>15</v>
       </c>
       <c r="AB35" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36">
@@ -4498,7 +4504,9 @@
       <c r="G36" t="n">
         <v>15</v>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>17</v>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4525,7 +4533,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6277,7 +6285,9 @@
       <c r="W35" t="n">
         <v>7</v>
       </c>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>388</v>
+      </c>
       <c r="Y35" t="n">
         <v>112</v>
       </c>
@@ -6286,7 +6296,7 @@
         <v>194</v>
       </c>
       <c r="AB35" t="n">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="36">
@@ -6303,7 +6313,9 @@
       <c r="G36" t="n">
         <v>70</v>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>77</v>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -6324,7 +6336,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
@@ -11020,12 +11032,14 @@
       <c r="W35" t="n">
         <v>3</v>
       </c>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>203</v>
+      </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>669</v>
+        <v>685</v>
       </c>
     </row>
     <row r="36">
@@ -11067,7 +11081,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>715</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2634,12 +2634,16 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>497</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>46</v>
+      </c>
       <c r="Q36" t="n">
         <v>389</v>
       </c>
@@ -2664,7 +2668,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>15233</v>
+        <v>15330</v>
       </c>
     </row>
   </sheetData>
@@ -4509,7 +4513,9 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>12</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -4533,7 +4539,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +6324,9 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>63</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -6336,7 +6344,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>1754</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2633,12 +2633,16 @@
         <v>477</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>50</v>
+      </c>
       <c r="K36" t="n">
         <v>497</v>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>351</v>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
@@ -2650,16 +2654,16 @@
       <c r="R36" t="n">
         <v>41</v>
       </c>
-      <c r="S36" t="n">
-        <v>193</v>
-      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
         <v>135</v>
       </c>
       <c r="U36" t="n">
         <v>148</v>
       </c>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>1962</v>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2668,7 +2672,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>15330</v>
+        <v>15467</v>
       </c>
     </row>
   </sheetData>
@@ -4512,12 +4516,16 @@
         <v>17</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="n">
         <v>12</v>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>6</v>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -4529,8 +4537,12 @@
       <c r="T36" t="n">
         <v>2</v>
       </c>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>105</v>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -4539,7 +4551,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6323,7 +6335,9 @@
         <v>77</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="n">
         <v>63</v>
       </c>
@@ -6337,14 +6351,16 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>415</v>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>1765</v>
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
@@ -7984,14 +8000,16 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>75</v>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2625,7 +2625,9 @@
         <v>49</v>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>539</v>
+      </c>
       <c r="G36" t="n">
         <v>621</v>
       </c>
@@ -2672,7 +2674,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>15467</v>
+        <v>15495</v>
       </c>
     </row>
   </sheetData>
@@ -4508,7 +4510,9 @@
         <v>2</v>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
       <c r="G36" t="n">
         <v>15</v>
       </c>
@@ -4551,7 +4555,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -7962,14 +7966,16 @@
         <v>69</v>
       </c>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>78</v>
+      </c>
       <c r="Y35" t="n">
         <v>23</v>
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
@@ -8009,7 +8015,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2645,7 +2645,9 @@
       <c r="M36" t="n">
         <v>351</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>338</v>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
         <v>46</v>
@@ -2674,7 +2676,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>15495</v>
+        <v>15520</v>
       </c>
     </row>
   </sheetData>
@@ -4530,7 +4532,9 @@
       <c r="M36" t="n">
         <v>6</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>6</v>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2619,7 +2619,9 @@
           <t>2020-03-30</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>481</v>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
         <v>49</v>
@@ -2676,7 +2678,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>15520</v>
+        <v>15637</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4508,9 @@
           <t>2020-03-30</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
         <v>2</v>
@@ -4559,7 +4563,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6331,7 +6335,9 @@
           <t>2020-03-30</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>94</v>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -6368,7 +6374,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>1776</v>
+        <v>1820</v>
       </c>
     </row>
   </sheetData>
@@ -7988,7 +7994,9 @@
           <t>2020-03-30</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>25</v>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -8019,7 +8027,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -9535,7 +9543,9 @@
           <t>2020-03-30</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>23</v>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -9562,7 +9572,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2622,7 +2622,9 @@
       <c r="B36" t="n">
         <v>481</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>14</v>
+      </c>
       <c r="D36" t="n">
         <v>49</v>
       </c>
@@ -2678,7 +2680,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>15637</v>
+        <v>15638</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2674,13 +2674,15 @@
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
       <c r="Z36" t="n">
         <v>112</v>
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>15638</v>
+        <v>15674</v>
       </c>
     </row>
   </sheetData>
@@ -4559,13 +4561,15 @@
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>26</v>
+      </c>
       <c r="Z36" t="n">
         <v>1</v>
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2549,7 +2549,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="n">
-        <v>798</v>
+        <v>826</v>
       </c>
       <c r="F35" t="n">
         <v>511</v>
@@ -2561,7 +2561,7 @@
         <v>442</v>
       </c>
       <c r="I35" t="n">
-        <v>2283</v>
+        <v>2349</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -2610,7 +2610,7 @@
         <v>1758</v>
       </c>
       <c r="AB35" t="n">
-        <v>15129</v>
+        <v>15223</v>
       </c>
     </row>
     <row r="36">
@@ -2638,21 +2638,27 @@
       <c r="H36" t="n">
         <v>477</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>2375</v>
+      </c>
       <c r="J36" t="n">
         <v>50</v>
       </c>
       <c r="K36" t="n">
         <v>497</v>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>122</v>
+      </c>
       <c r="M36" t="n">
         <v>351</v>
       </c>
       <c r="N36" t="n">
         <v>338</v>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>63</v>
+      </c>
       <c r="P36" t="n">
         <v>46</v>
       </c>
@@ -2672,7 +2678,9 @@
       <c r="V36" t="n">
         <v>1962</v>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>53</v>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
         <v>1000</v>
@@ -2680,9 +2688,11 @@
       <c r="Z36" t="n">
         <v>112</v>
       </c>
-      <c r="AA36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>1874</v>
+      </c>
       <c r="AB36" t="n">
-        <v>15674</v>
+        <v>15921</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F35" t="n">
         <v>6</v>
@@ -4462,7 +4472,7 @@
         <v>16</v>
       </c>
       <c r="I35" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4503,7 +4513,7 @@
         <v>15</v>
       </c>
       <c r="AB35" t="n">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -4529,7 +4539,9 @@
       <c r="H36" t="n">
         <v>17</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>42</v>
+      </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
@@ -4543,7 +4555,9 @@
       <c r="N36" t="n">
         <v>6</v>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
         <v>5</v>
@@ -4567,9 +4581,11 @@
       <c r="Z36" t="n">
         <v>1</v>
       </c>
-      <c r="AA36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>21</v>
+      </c>
       <c r="AB36" t="n">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6290,7 +6306,9 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>112</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>65</v>
@@ -6332,7 +6350,7 @@
         <v>194</v>
       </c>
       <c r="AB35" t="n">
-        <v>1748</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="36">
@@ -6354,14 +6372,18 @@
       <c r="H36" t="n">
         <v>77</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>382</v>
+      </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>63</v>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>23</v>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -6374,13 +6396,17 @@
       <c r="V36" t="n">
         <v>415</v>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>7</v>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>199</v>
+      </c>
       <c r="AB36" t="n">
-        <v>1820</v>
+        <v>1952</v>
       </c>
     </row>
   </sheetData>
@@ -7955,7 +7981,9 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>21</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>12</v>
@@ -7991,7 +8019,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
@@ -8011,10 +8039,14 @@
         <v>12</v>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>57</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -8033,7 +8065,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -9354,7 +9386,9 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>48</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -9376,7 +9410,7 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -9394,7 +9428,9 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>48</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -9418,7 +9454,7 @@
         <v>32</v>
       </c>
       <c r="AB32" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -9436,7 +9472,9 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>54</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -9460,7 +9498,7 @@
         <v>37</v>
       </c>
       <c r="AB33" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -9476,7 +9514,9 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>54</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -9500,7 +9540,7 @@
         <v>42</v>
       </c>
       <c r="AB34" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -9512,11 +9552,15 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>17</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>55</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -9540,7 +9584,7 @@
         <v>46</v>
       </c>
       <c r="AB35" t="n">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
@@ -9558,7 +9602,9 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>54</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -9576,9 +9622,11 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>47</v>
+      </c>
       <c r="AB36" t="n">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -11109,7 +11157,9 @@
         <v>263</v>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>216</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -11125,7 +11175,9 @@
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>9</v>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
@@ -11133,7 +11185,7 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>731</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2549,7 +2549,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="n">
-        <v>826</v>
+        <v>798</v>
       </c>
       <c r="F35" t="n">
         <v>511</v>
@@ -2610,7 +2610,7 @@
         <v>1758</v>
       </c>
       <c r="AB35" t="n">
-        <v>15223</v>
+        <v>15195</v>
       </c>
     </row>
     <row r="36">
@@ -2628,7 +2628,9 @@
       <c r="D36" t="n">
         <v>49</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>826</v>
+      </c>
       <c r="F36" t="n">
         <v>539</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
         <v>6</v>
@@ -4513,7 +4515,7 @@
         <v>15</v>
       </c>
       <c r="AB35" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
@@ -4529,7 +4531,9 @@
       <c r="D36" t="n">
         <v>2</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
       <c r="F36" t="n">
         <v>7</v>
       </c>
@@ -6306,9 +6310,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>112</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>65</v>
@@ -6350,7 +6352,7 @@
         <v>194</v>
       </c>
       <c r="AB35" t="n">
-        <v>1860</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="36">
@@ -6364,7 +6366,9 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>112</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>70</v>
@@ -7981,9 +7985,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>21</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>12</v>
@@ -8019,7 +8021,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
@@ -8033,7 +8035,9 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>21</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>12</v>
@@ -9552,9 +9556,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>17</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -9584,7 +9586,7 @@
         <v>46</v>
       </c>
       <c r="AB35" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -9598,7 +9600,9 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>17</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2626,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" t="n">
         <v>826</v>
@@ -2694,7 +2694,7 @@
         <v>1874</v>
       </c>
       <c r="AB36" t="n">
-        <v>15921</v>
+        <v>15922</v>
       </c>
     </row>
   </sheetData>
@@ -4559,9 +4559,7 @@
       <c r="N36" t="n">
         <v>6</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
         <v>5</v>
@@ -7472,7 +7470,9 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
       <c r="I24" t="n">
         <v>20</v>
       </c>
@@ -7499,7 +7499,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -7516,7 +7516,9 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
       <c r="I25" t="n">
         <v>19</v>
       </c>
@@ -7545,7 +7547,7 @@
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -7562,7 +7564,9 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
       <c r="I26" t="n">
         <v>22</v>
       </c>
@@ -7591,7 +7595,7 @@
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -7606,7 +7610,9 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
       <c r="I27" t="n">
         <v>25</v>
       </c>
@@ -7635,7 +7641,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -7650,7 +7656,9 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
       <c r="I28" t="n">
         <v>36</v>
       </c>
@@ -7681,7 +7689,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -7698,7 +7706,9 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
       <c r="I29" t="n">
         <v>43</v>
       </c>
@@ -7729,7 +7739,7 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -7746,7 +7756,9 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
       <c r="I30" t="n">
         <v>41</v>
       </c>
@@ -7777,7 +7789,7 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31">
@@ -7794,7 +7806,9 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
       <c r="I31" t="n">
         <v>50</v>
       </c>
@@ -7825,7 +7839,7 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
@@ -7844,7 +7858,9 @@
       <c r="G32" t="n">
         <v>8</v>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
       <c r="I32" t="n">
         <v>52</v>
       </c>
@@ -7875,7 +7891,7 @@
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33">
@@ -7894,7 +7910,9 @@
       <c r="G33" t="n">
         <v>8</v>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
       <c r="I33" t="n">
         <v>54</v>
       </c>
@@ -7925,7 +7943,7 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="n">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34">
@@ -7942,7 +7960,9 @@
       <c r="G34" t="n">
         <v>11</v>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
       <c r="I34" t="n">
         <v>59</v>
       </c>
@@ -7973,7 +7993,7 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="n">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
@@ -7990,7 +8010,9 @@
       <c r="G35" t="n">
         <v>12</v>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>13</v>
+      </c>
       <c r="I35" t="n">
         <v>59</v>
       </c>
@@ -8021,7 +8043,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -8042,7 +8064,9 @@
       <c r="G36" t="n">
         <v>12</v>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>16</v>
+      </c>
       <c r="I36" t="n">
         <v>57</v>
       </c>
@@ -8069,7 +8093,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -9239,7 +9263,9 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="n">
+        <v>37</v>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
@@ -9248,7 +9274,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -9279,7 +9305,9 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>43</v>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
@@ -9288,7 +9316,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -9321,7 +9349,9 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="n">
+        <v>43</v>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
@@ -9330,7 +9360,7 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -9363,7 +9393,9 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="n">
+        <v>48</v>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
@@ -9372,7 +9404,7 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -9405,7 +9437,9 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>55</v>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
@@ -9414,7 +9448,7 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -9447,7 +9481,9 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="n">
+        <v>56</v>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
@@ -9458,7 +9494,7 @@
         <v>32</v>
       </c>
       <c r="AB32" t="n">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33">
@@ -9491,7 +9527,9 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="n">
+        <v>51</v>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
@@ -9502,7 +9540,7 @@
         <v>37</v>
       </c>
       <c r="AB33" t="n">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
@@ -9533,7 +9571,9 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>60</v>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
@@ -9544,7 +9584,7 @@
         <v>42</v>
       </c>
       <c r="AB34" t="n">
-        <v>121</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35">
@@ -9575,7 +9615,9 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>59</v>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
@@ -9586,7 +9628,7 @@
         <v>46</v>
       </c>
       <c r="AB35" t="n">
-        <v>125</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
@@ -9621,7 +9663,9 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>61</v>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -9630,7 +9674,7 @@
         <v>47</v>
       </c>
       <c r="AB36" t="n">
-        <v>155</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -363,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2697,6 +2697,50 @@
         <v>15922</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>394</v>
+      </c>
+      <c r="R37" t="n">
+        <v>42</v>
+      </c>
+      <c r="S37" t="n">
+        <v>190</v>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>15930</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2708,7 +2752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4590,6 +4634,46 @@
         <v>359</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>7</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4601,7 +4685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6402,13 +6486,51 @@
         <v>7</v>
       </c>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>122</v>
+      </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>199</v>
       </c>
       <c r="AB36" t="n">
-        <v>1952</v>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>1962</v>
       </c>
     </row>
   </sheetData>
@@ -6422,7 +6544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8089,11 +8211,49 @@
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>21</v>
+      </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>312</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8107,7 +8267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9668,13 +9828,51 @@
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>16</v>
+      </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>47</v>
       </c>
       <c r="AB36" t="n">
-        <v>216</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -9688,7 +9886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11236,6 +11434,44 @@
         <v>760</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>770</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2727,7 +2727,9 @@
       <c r="S37" t="n">
         <v>190</v>
       </c>
-      <c r="T37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>141</v>
+      </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
@@ -2738,7 +2740,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>15930</v>
+        <v>15936</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4662,9 @@
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>4</v>
+      </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
@@ -4671,7 +4675,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -11458,7 +11462,9 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>48</v>
+      </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
@@ -11469,7 +11475,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>770</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2730,7 +2730,9 @@
       <c r="T37" t="n">
         <v>141</v>
       </c>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>154</v>
+      </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -2740,7 +2742,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>15936</v>
+        <v>15942</v>
       </c>
     </row>
   </sheetData>
@@ -4661,11 +4663,15 @@
         <v>7</v>
       </c>
       <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
       <c r="T37" t="n">
         <v>4</v>
       </c>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -4675,7 +4681,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2708,7 +2708,9 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>628</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2717,7 +2719,9 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>46</v>
+      </c>
       <c r="Q37" t="n">
         <v>394</v>
       </c>
@@ -2742,7 +2746,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>15942</v>
+        <v>15949</v>
       </c>
     </row>
   </sheetData>
@@ -4649,7 +4653,9 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>16</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -4681,7 +4687,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6518,7 +6524,9 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>82</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -6540,7 +6548,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1962</v>
+        <v>1974</v>
       </c>
     </row>
   </sheetData>
@@ -8241,7 +8249,9 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>15</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -8263,7 +8273,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -11455,7 +11465,9 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>292</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -11481,7 +11493,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>785</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2714,9 +2714,13 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>513</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>375</v>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
@@ -2746,7 +2750,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>15949</v>
+        <v>15989</v>
       </c>
     </row>
   </sheetData>
@@ -4659,9 +4663,13 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>19</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>7</v>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -4687,7 +4695,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6530,7 +6538,9 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>58</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -6548,7 +6558,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1974</v>
+        <v>1969</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2741,7 +2741,9 @@
       <c r="U37" t="n">
         <v>154</v>
       </c>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>2091</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2750,7 +2752,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>15989</v>
+        <v>16118</v>
       </c>
     </row>
   </sheetData>
@@ -4686,7 +4688,9 @@
       <c r="U37" t="n">
         <v>3</v>
       </c>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>120</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -4695,7 +4699,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -6551,14 +6555,16 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>401</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1969</v>
+        <v>1955</v>
       </c>
     </row>
   </sheetData>
@@ -8276,14 +8282,16 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>74</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -9895,14 +9903,16 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>67</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -11494,7 +11504,9 @@
         <v>48</v>
       </c>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>202</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -11503,7 +11515,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>814</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2713,7 +2713,9 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>53</v>
+      </c>
       <c r="K37" t="n">
         <v>513</v>
       </c>
@@ -2752,7 +2754,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>16118</v>
+        <v>16121</v>
       </c>
     </row>
   </sheetData>
@@ -4664,7 +4666,9 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
       <c r="K37" t="n">
         <v>19</v>
       </c>
@@ -4699,7 +4703,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6541,7 +6545,9 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
       <c r="K37" t="n">
         <v>58</v>
       </c>
@@ -6564,7 +6570,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1955</v>
+        <v>1959</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2707,7 +2707,9 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>561</v>
+      </c>
       <c r="G37" t="n">
         <v>628</v>
       </c>
@@ -2754,7 +2756,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>16121</v>
+        <v>16143</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4662,9 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
       <c r="G37" t="n">
         <v>16</v>
       </c>
@@ -4703,7 +4707,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2725,7 +2725,9 @@
       <c r="M37" t="n">
         <v>375</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>357</v>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
         <v>46</v>
@@ -2737,7 +2739,7 @@
         <v>42</v>
       </c>
       <c r="S37" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="T37" t="n">
         <v>141</v>
@@ -2756,7 +2758,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>16143</v>
+        <v>16168</v>
       </c>
     </row>
   </sheetData>
@@ -4680,7 +4682,9 @@
       <c r="M37" t="n">
         <v>7</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>6</v>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="n">

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2713,7 +2713,9 @@
       <c r="G37" t="n">
         <v>628</v>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>491</v>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>53</v>
@@ -2750,7 +2752,9 @@
       <c r="V37" t="n">
         <v>2091</v>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>57</v>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
@@ -2758,7 +2762,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>16168</v>
+        <v>16186</v>
       </c>
     </row>
   </sheetData>
@@ -4670,7 +4674,9 @@
       <c r="G37" t="n">
         <v>16</v>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>2</v>
@@ -4711,7 +4717,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6551,7 +6557,9 @@
       <c r="G37" t="n">
         <v>82</v>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>77</v>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>5</v>
@@ -6572,13 +6580,15 @@
       <c r="V37" t="n">
         <v>401</v>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>9</v>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1959</v>
+        <v>1961</v>
       </c>
     </row>
   </sheetData>
@@ -8282,7 +8292,9 @@
       <c r="G37" t="n">
         <v>15</v>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -8305,7 +8317,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -11521,7 +11533,9 @@
       <c r="V37" t="n">
         <v>202</v>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>11</v>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
@@ -11529,7 +11543,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -642,7 +642,9 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
@@ -676,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +722,7 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +734,9 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
@@ -768,7 +772,7 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -782,7 +786,9 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
@@ -822,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -878,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -892,7 +898,9 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
@@ -936,7 +944,7 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -992,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -1006,7 +1014,9 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
       <c r="F12" t="n">
         <v>6</v>
       </c>
@@ -1050,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
@@ -1098,7 +1108,7 @@
         <v>30</v>
       </c>
       <c r="AB13" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1160,7 @@
         <v>37</v>
       </c>
       <c r="AB14" t="n">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15">
@@ -1166,7 +1176,9 @@
       <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>34</v>
+      </c>
       <c r="F15" t="n">
         <v>20</v>
       </c>
@@ -1206,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="AB15" t="n">
-        <v>244</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16">
@@ -1258,7 +1270,7 @@
         <v>49</v>
       </c>
       <c r="AB16" t="n">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17">
@@ -1314,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="AB17" t="n">
-        <v>406</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18">
@@ -1376,7 +1388,7 @@
         <v>92</v>
       </c>
       <c r="AB18" t="n">
-        <v>759</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19">
@@ -1438,7 +1450,7 @@
         <v>140</v>
       </c>
       <c r="AB19" t="n">
-        <v>1083</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="20">
@@ -1496,7 +1508,7 @@
       </c>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
-        <v>1398</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1560,7 @@
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
-        <v>1605</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="22">

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2715,8 +2715,12 @@
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>499</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14</v>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
@@ -2774,7 +2778,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>16186</v>
+        <v>16204</v>
       </c>
     </row>
   </sheetData>
@@ -4438,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>76</v>
@@ -4457,7 +4461,7 @@
         <v>11</v>
       </c>
       <c r="AB33" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
@@ -4510,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>87</v>
@@ -4527,7 +4531,7 @@
         <v>15</v>
       </c>
       <c r="AB34" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
@@ -4578,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>93</v>
@@ -4595,7 +4599,7 @@
         <v>15</v>
       </c>
       <c r="AB35" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
@@ -4676,7 +4680,9 @@
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -4729,7 +4735,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6567,9 @@
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>85</v>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -6600,7 +6608,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1961</v>
+        <v>1952</v>
       </c>
     </row>
   </sheetData>
@@ -8296,7 +8304,9 @@
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>25</v>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -9921,7 +9931,9 @@
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>25</v>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -9950,7 +9962,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2695,7 +2695,9 @@
       <c r="W36" t="n">
         <v>53</v>
       </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>3272</v>
+      </c>
       <c r="Y36" t="n">
         <v>1000</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>1874</v>
       </c>
       <c r="AB36" t="n">
-        <v>15922</v>
+        <v>16026</v>
       </c>
     </row>
     <row r="37">
@@ -2721,8 +2723,12 @@
       <c r="C37" t="n">
         <v>14</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>58</v>
+      </c>
+      <c r="E37" t="n">
+        <v>856</v>
+      </c>
       <c r="F37" t="n">
         <v>561</v>
       </c>
@@ -2776,9 +2782,11 @@
       <c r="Z37" t="n">
         <v>114</v>
       </c>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>1960</v>
+      </c>
       <c r="AB37" t="n">
-        <v>16204</v>
+        <v>16432</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4668,9 @@
         <v>105</v>
       </c>
       <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>77</v>
+      </c>
       <c r="Y36" t="n">
         <v>26</v>
       </c>
@@ -4671,7 +4681,7 @@
         <v>21</v>
       </c>
       <c r="AB36" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37">
@@ -4684,8 +4694,12 @@
         <v>11</v>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16</v>
+      </c>
       <c r="F37" t="n">
         <v>10</v>
       </c>
@@ -4733,9 +4747,11 @@
       <c r="Z37" t="n">
         <v>1</v>
       </c>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>25</v>
+      </c>
       <c r="AB37" t="n">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +6301,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H32" t="n">
         <v>44</v>
@@ -6328,7 +6344,7 @@
         <v>152</v>
       </c>
       <c r="AB32" t="n">
-        <v>1417</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="33">
@@ -6345,7 +6361,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H33" t="n">
         <v>50</v>
@@ -6388,7 +6404,7 @@
         <v>156</v>
       </c>
       <c r="AB33" t="n">
-        <v>1573</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="34">
@@ -6403,7 +6419,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H34" t="n">
         <v>67</v>
@@ -6444,7 +6460,7 @@
         <v>187</v>
       </c>
       <c r="AB34" t="n">
-        <v>1681</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="35">
@@ -6459,7 +6475,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="H35" t="n">
         <v>76</v>
@@ -6498,7 +6514,7 @@
         <v>194</v>
       </c>
       <c r="AB35" t="n">
-        <v>1748</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="36">
@@ -6517,7 +6533,7 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H36" t="n">
         <v>77</v>
@@ -6549,7 +6565,9 @@
       <c r="W36" t="n">
         <v>7</v>
       </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>386</v>
+      </c>
       <c r="Y36" t="n">
         <v>122</v>
       </c>
@@ -6558,7 +6576,7 @@
         <v>199</v>
       </c>
       <c r="AB36" t="n">
-        <v>1962</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="37">
@@ -6572,10 +6590,12 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>111</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="H37" t="n">
         <v>77</v>
@@ -6606,9 +6626,11 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>197</v>
+      </c>
       <c r="AB37" t="n">
-        <v>1952</v>
+        <v>1970</v>
       </c>
     </row>
   </sheetData>
@@ -8309,7 +8331,9 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>23</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
         <v>15</v>
@@ -8339,7 +8363,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -9936,7 +9960,9 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>18</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -9960,9 +9986,11 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>51</v>
+      </c>
       <c r="AB37" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -11514,14 +11542,16 @@
       <c r="W36" t="n">
         <v>9</v>
       </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>223</v>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
         <v>29</v>
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>760</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37">
@@ -11567,7 +11597,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1018</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/covid_19_data_switzerland.xlsx
+++ b/covid_19_data_switzerland.xlsx
@@ -2653,7 +2653,7 @@
         <v>477</v>
       </c>
       <c r="I36" t="n">
-        <v>2375</v>
+        <v>2450</v>
       </c>
       <c r="J36" t="n">
         <v>50</v>
@@ -2708,7 +2708,7 @@
         <v>1874</v>
       </c>
       <c r="AB36" t="n">
-        <v>16026</v>
+        <v>16101</v>
       </c>
     </row>
     <row r="37">
@@ -2738,21 +2738,27 @@
       <c r="H37" t="n">
         <v>491</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>2451</v>
+      </c>
       <c r="J37" t="n">
         <v>53</v>
       </c>
       <c r="K37" t="n">
         <v>513</v>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>127</v>
+      </c>
       <c r="M37" t="n">
         <v>375</v>
       </c>
       <c r="N37" t="n">
         <v>357</v>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>70</v>
+      </c>
       <c r="P37" t="n">
         <v>46</v>
       </c>
@@ -2778,7 +2784,9 @@
         <v>57</v>
       </c>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>1085</v>
+      </c>
       <c r="Z37" t="n">
         <v>114</v>
       </c>
@@ -2786,7 +2794,7 @@
         <v>1960</v>
       </c>
       <c r="AB37" t="n">
-        <v>16432</v>
+        <v>16605</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4644,7 @@
         <v>17</v>
       </c>
       <c r="I36" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -4681,7 +4689,7 @@
         <v>21</v>
       </c>
       <c r="AB36" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
@@ -4709,7 +4717,9 @@
       <c r="H37" t="n">
         <v>20</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>49</v>
+      </c>
       <c r="J37" t="n">
         <v>2</v>
       </c>
@@ -4721,7 +4731,7 @@
         <v>7</v>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -4743,7 +4753,9 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>35</v>
+      </c>
       <c r="Z37" t="n">
         <v>1</v>
       </c>
@@ -4751,7 +4763,7 @@
         <v>25</v>
       </c>
       <c r="AB37" t="n">
-        <v>416</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -6600,14 +6612,18 @@
       <c r="H37" t="n">
         <v>77</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>405</v>
+      </c>
       <c r="J37" t="n">
         <v>5</v>
       </c>
       <c r="K37" t="n">
         <v>58</v>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>23</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -6624,13 +6640,15 @@
         <v>9</v>
       </c>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>136</v>
+      </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>197</v>
       </c>
       <c r="AB37" t="n">
-        <v>1970</v>
+        <v>2007</v>
       </c>
     </row>
   </sheetData>
@@ -8341,10 +8359,14 @@
       <c r="H37" t="n">
         <v>20</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>64</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>4</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -8359,11 +8381,13 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>23</v>
+      </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -9966,7 +9990,9 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>49</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -9984,13 +10010,15 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>18</v>
+      </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>51</v>
       </c>
       <c r="AB37" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -11569,7 +11597,9 @@
         <v>292</v>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>241</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -11597,7 +11627,7 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>1038</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
